--- a/data/analysis/social_media_analytics/pivot_over_time/pivot_over_time-twitter_by_governance_simpl-M-data.xlsx
+++ b/data/analysis/social_media_analytics/pivot_over_time/pivot_over_time-twitter_by_governance_simpl-M-data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="13">
   <si>
     <t>count</t>
   </si>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,13 +445,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>31014</v>
+        <v>30423</v>
       </c>
       <c r="B2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C2">
-        <v>0.0267</v>
+        <v>0.0224</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -468,13 +468,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>32443</v>
+        <v>31683</v>
       </c>
       <c r="B3">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C3">
-        <v>0.028</v>
+        <v>0.0233</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -491,13 +491,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>32052</v>
+        <v>31578</v>
       </c>
       <c r="B4">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C4">
-        <v>0.0276</v>
+        <v>0.0232</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -514,13 +514,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>31098</v>
+        <v>30679</v>
       </c>
       <c r="B5">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C5">
-        <v>0.0268</v>
+        <v>0.0226</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -537,13 +537,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>36012</v>
+        <v>35440</v>
       </c>
       <c r="B6">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C6">
-        <v>0.031</v>
+        <v>0.0261</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -560,13 +560,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>31847</v>
+        <v>31312</v>
       </c>
       <c r="B7">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C7">
-        <v>0.0275</v>
+        <v>0.023</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>32369</v>
+        <v>31887</v>
       </c>
       <c r="B8">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C8">
-        <v>0.0279</v>
+        <v>0.0235</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -606,13 +606,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>30285</v>
+        <v>29721</v>
       </c>
       <c r="B9">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C9">
-        <v>0.0261</v>
+        <v>0.0219</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -629,13 +629,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>29797</v>
+        <v>29105</v>
       </c>
       <c r="B10">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C10">
-        <v>0.0257</v>
+        <v>0.0214</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -652,13 +652,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>33554</v>
+        <v>33038</v>
       </c>
       <c r="B11">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C11">
-        <v>0.0289</v>
+        <v>0.0243</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -675,13 +675,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>30861</v>
+        <v>30406</v>
       </c>
       <c r="B12">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C12">
-        <v>0.0266</v>
+        <v>0.0224</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -698,13 +698,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>23752</v>
+        <v>23365</v>
       </c>
       <c r="B13">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C13">
-        <v>0.0205</v>
+        <v>0.0172</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -721,13 +721,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>26123</v>
+        <v>25662</v>
       </c>
       <c r="B14">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C14">
-        <v>0.0225</v>
+        <v>0.0189</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -744,13 +744,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>29981</v>
+        <v>29189</v>
       </c>
       <c r="B15">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C15">
-        <v>0.0258</v>
+        <v>0.0215</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -767,13 +767,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>35898</v>
+        <v>34979</v>
       </c>
       <c r="B16">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C16">
-        <v>0.0309</v>
+        <v>0.0257</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -790,13 +790,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>59740</v>
+        <v>58314</v>
       </c>
       <c r="B17">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C17">
-        <v>0.0515</v>
+        <v>0.0429</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -813,13 +813,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>61031</v>
+        <v>59473</v>
       </c>
       <c r="B18">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C18">
-        <v>0.0526</v>
+        <v>0.0438</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>44862</v>
+        <v>43507</v>
       </c>
       <c r="B19">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C19">
-        <v>0.0387</v>
+        <v>0.032</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -859,13 +859,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>40964</v>
+        <v>39987</v>
       </c>
       <c r="B20">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C20">
-        <v>0.0353</v>
+        <v>0.0294</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -882,13 +882,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>34552</v>
+        <v>33284</v>
       </c>
       <c r="B21">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C21">
-        <v>0.0298</v>
+        <v>0.0245</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -905,13 +905,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>35635</v>
+        <v>34415</v>
       </c>
       <c r="B22">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C22">
-        <v>0.0307</v>
+        <v>0.0253</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -928,13 +928,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>42497</v>
+        <v>41175</v>
       </c>
       <c r="B23">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C23">
-        <v>0.0366</v>
+        <v>0.0303</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -951,13 +951,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>35395</v>
+        <v>34205</v>
       </c>
       <c r="B24">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C24">
-        <v>0.0305</v>
+        <v>0.0252</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -974,13 +974,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>33087</v>
+        <v>31975</v>
       </c>
       <c r="B25">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C25">
-        <v>0.0285</v>
+        <v>0.0235</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>34255</v>
+        <v>33076</v>
       </c>
       <c r="B26">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C26">
-        <v>0.0295</v>
+        <v>0.0243</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1020,13 +1020,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>36129</v>
+        <v>35076</v>
       </c>
       <c r="B27">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C27">
-        <v>0.0311</v>
+        <v>0.0258</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>40070</v>
+        <v>39040</v>
       </c>
       <c r="B28">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C28">
-        <v>0.0345</v>
+        <v>0.0287</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1066,13 +1066,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>33233</v>
+        <v>32426</v>
       </c>
       <c r="B29">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C29">
-        <v>0.0286</v>
+        <v>0.0239</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>34127</v>
+        <v>33122</v>
       </c>
       <c r="B30">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C30">
-        <v>0.0294</v>
+        <v>0.0244</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1112,13 +1112,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>33615</v>
+        <v>32713</v>
       </c>
       <c r="B31">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C31">
-        <v>0.029</v>
+        <v>0.0241</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1135,13 +1135,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>33630</v>
+        <v>32572</v>
       </c>
       <c r="B32">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C32">
-        <v>0.029</v>
+        <v>0.024</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>30162</v>
+        <v>29213</v>
       </c>
       <c r="B33">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C33">
-        <v>0.026</v>
+        <v>0.0215</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1181,13 +1181,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>29703</v>
+        <v>28709</v>
       </c>
       <c r="B34">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C34">
-        <v>0.0256</v>
+        <v>0.0211</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1204,197 +1204,197 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>54041</v>
+        <v>30150</v>
       </c>
       <c r="B35">
-        <v>1173</v>
+        <v>432</v>
       </c>
       <c r="C35">
-        <v>0.0288</v>
+        <v>0.0222</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="2">
-        <v>43496</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>54559</v>
+        <v>28870</v>
       </c>
       <c r="B36">
-        <v>1194</v>
+        <v>432</v>
       </c>
       <c r="C36">
-        <v>0.0291</v>
+        <v>0.0213</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="2">
-        <v>43524</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>58909</v>
+        <v>25988</v>
       </c>
       <c r="B37">
-        <v>1206</v>
+        <v>424</v>
       </c>
       <c r="C37">
-        <v>0.0314</v>
+        <v>0.0191</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="2">
-        <v>43555</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>60952</v>
+        <v>24743</v>
       </c>
       <c r="B38">
-        <v>1256</v>
+        <v>438</v>
       </c>
       <c r="C38">
-        <v>0.0325</v>
+        <v>0.0182</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="2">
-        <v>43585</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>63259</v>
+        <v>28152</v>
       </c>
       <c r="B39">
-        <v>1212</v>
+        <v>443</v>
       </c>
       <c r="C39">
-        <v>0.0337</v>
+        <v>0.0207</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="2">
-        <v>43616</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>56942</v>
+        <v>30936</v>
       </c>
       <c r="B40">
-        <v>1190</v>
+        <v>436</v>
       </c>
       <c r="C40">
-        <v>0.0304</v>
+        <v>0.0228</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="2">
-        <v>43646</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>56752</v>
+        <v>27950</v>
       </c>
       <c r="B41">
-        <v>1196</v>
+        <v>436</v>
       </c>
       <c r="C41">
-        <v>0.0303</v>
+        <v>0.0206</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="2">
-        <v>43677</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>55980</v>
+        <v>30665</v>
       </c>
       <c r="B42">
-        <v>1174</v>
+        <v>446</v>
       </c>
       <c r="C42">
-        <v>0.0298</v>
+        <v>0.0226</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="2">
-        <v>43708</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>51206</v>
+        <v>53076</v>
       </c>
       <c r="B43">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="C43">
-        <v>0.0273</v>
+        <v>0.0241</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1406,18 +1406,18 @@
         <v>12</v>
       </c>
       <c r="G43" s="2">
-        <v>43738</v>
+        <v>43496</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>55749</v>
+        <v>53593</v>
       </c>
       <c r="B44">
-        <v>1150</v>
+        <v>1183</v>
       </c>
       <c r="C44">
-        <v>0.0297</v>
+        <v>0.0244</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1429,18 +1429,18 @@
         <v>12</v>
       </c>
       <c r="G44" s="2">
-        <v>43769</v>
+        <v>43524</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>51450</v>
+        <v>58018</v>
       </c>
       <c r="B45">
-        <v>1153</v>
+        <v>1196</v>
       </c>
       <c r="C45">
-        <v>0.0274</v>
+        <v>0.0264</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1452,18 +1452,18 @@
         <v>12</v>
       </c>
       <c r="G45" s="2">
-        <v>43799</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>40974</v>
+        <v>60124</v>
       </c>
       <c r="B46">
-        <v>1104</v>
+        <v>1244</v>
       </c>
       <c r="C46">
-        <v>0.0218</v>
+        <v>0.0274</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1475,18 +1475,18 @@
         <v>12</v>
       </c>
       <c r="G46" s="2">
-        <v>43830</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>45235</v>
+        <v>62355</v>
       </c>
       <c r="B47">
-        <v>1119</v>
+        <v>1199</v>
       </c>
       <c r="C47">
-        <v>0.0241</v>
+        <v>0.0284</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1498,18 +1498,18 @@
         <v>12</v>
       </c>
       <c r="G47" s="2">
-        <v>43861</v>
+        <v>43616</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>48903</v>
+        <v>56262</v>
       </c>
       <c r="B48">
-        <v>1141</v>
+        <v>1177</v>
       </c>
       <c r="C48">
-        <v>0.0261</v>
+        <v>0.0256</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1521,18 +1521,18 @@
         <v>12</v>
       </c>
       <c r="G48" s="2">
-        <v>43890</v>
+        <v>43646</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>65869</v>
+        <v>55974</v>
       </c>
       <c r="B49">
-        <v>1166</v>
+        <v>1182</v>
       </c>
       <c r="C49">
-        <v>0.0351</v>
+        <v>0.0255</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1544,18 +1544,18 @@
         <v>12</v>
       </c>
       <c r="G49" s="2">
-        <v>43921</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>79487</v>
+        <v>55259</v>
       </c>
       <c r="B50">
-        <v>1070</v>
+        <v>1160</v>
       </c>
       <c r="C50">
-        <v>0.0424</v>
+        <v>0.0251</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1567,18 +1567,18 @@
         <v>12</v>
       </c>
       <c r="G50" s="2">
-        <v>43951</v>
+        <v>43708</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>73905</v>
+        <v>50503</v>
       </c>
       <c r="B51">
-        <v>1040</v>
+        <v>1145</v>
       </c>
       <c r="C51">
-        <v>0.0394</v>
+        <v>0.023</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -1590,18 +1590,18 @@
         <v>12</v>
       </c>
       <c r="G51" s="2">
-        <v>43982</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>63655</v>
+        <v>54952</v>
       </c>
       <c r="B52">
-        <v>1068</v>
+        <v>1136</v>
       </c>
       <c r="C52">
-        <v>0.0339</v>
+        <v>0.025</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1613,18 +1613,18 @@
         <v>12</v>
       </c>
       <c r="G52" s="2">
-        <v>44012</v>
+        <v>43769</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>63779</v>
+        <v>50870</v>
       </c>
       <c r="B53">
-        <v>1078</v>
+        <v>1141</v>
       </c>
       <c r="C53">
-        <v>0.034</v>
+        <v>0.0231</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -1636,18 +1636,18 @@
         <v>12</v>
       </c>
       <c r="G53" s="2">
-        <v>44043</v>
+        <v>43799</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>57780</v>
+        <v>40452</v>
       </c>
       <c r="B54">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C54">
-        <v>0.0308</v>
+        <v>0.0184</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1659,18 +1659,18 @@
         <v>12</v>
       </c>
       <c r="G54" s="2">
-        <v>44074</v>
+        <v>43830</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>57091</v>
+        <v>44734</v>
       </c>
       <c r="B55">
-        <v>1086</v>
+        <v>1107</v>
       </c>
       <c r="C55">
-        <v>0.0304</v>
+        <v>0.0204</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1682,18 +1682,18 @@
         <v>12</v>
       </c>
       <c r="G55" s="2">
-        <v>44104</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>62745</v>
+        <v>47808</v>
       </c>
       <c r="B56">
-        <v>1099</v>
+        <v>1130</v>
       </c>
       <c r="C56">
-        <v>0.0334</v>
+        <v>0.0218</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -1705,18 +1705,18 @@
         <v>12</v>
       </c>
       <c r="G56" s="2">
-        <v>44135</v>
+        <v>43890</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>53696</v>
+        <v>64293</v>
       </c>
       <c r="B57">
-        <v>1084</v>
+        <v>1154</v>
       </c>
       <c r="C57">
-        <v>0.0286</v>
+        <v>0.0293</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1728,18 +1728,18 @@
         <v>12</v>
       </c>
       <c r="G57" s="2">
-        <v>44165</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>51043</v>
+        <v>78224</v>
       </c>
       <c r="B58">
-        <v>1084</v>
+        <v>1059</v>
       </c>
       <c r="C58">
-        <v>0.0272</v>
+        <v>0.0356</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -1751,18 +1751,18 @@
         <v>12</v>
       </c>
       <c r="G58" s="2">
-        <v>44196</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>55700</v>
+        <v>72739</v>
       </c>
       <c r="B59">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="C59">
-        <v>0.0297</v>
+        <v>0.0331</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1774,18 +1774,18 @@
         <v>12</v>
       </c>
       <c r="G59" s="2">
-        <v>44227</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>55333</v>
+        <v>62517</v>
       </c>
       <c r="B60">
-        <v>1030</v>
+        <v>1057</v>
       </c>
       <c r="C60">
-        <v>0.0295</v>
+        <v>0.0284</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1797,18 +1797,18 @@
         <v>12</v>
       </c>
       <c r="G60" s="2">
-        <v>44255</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>60169</v>
+        <v>62426</v>
       </c>
       <c r="B61">
-        <v>1043</v>
+        <v>1068</v>
       </c>
       <c r="C61">
-        <v>0.0321</v>
+        <v>0.0284</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -1820,18 +1820,18 @@
         <v>12</v>
       </c>
       <c r="G61" s="2">
-        <v>44286</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>56173</v>
+        <v>56616</v>
       </c>
       <c r="B62">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="C62">
-        <v>0.0299</v>
+        <v>0.0258</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -1843,18 +1843,18 @@
         <v>12</v>
       </c>
       <c r="G62" s="2">
-        <v>44316</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>57662</v>
+        <v>55912</v>
       </c>
       <c r="B63">
-        <v>1126</v>
+        <v>1077</v>
       </c>
       <c r="C63">
-        <v>0.0307</v>
+        <v>0.0254</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -1866,18 +1866,18 @@
         <v>12</v>
       </c>
       <c r="G63" s="2">
-        <v>44347</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>54625</v>
+        <v>61469</v>
       </c>
       <c r="B64">
-        <v>1119</v>
+        <v>1091</v>
       </c>
       <c r="C64">
-        <v>0.0291</v>
+        <v>0.028</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1889,18 +1889,18 @@
         <v>12</v>
       </c>
       <c r="G64" s="2">
-        <v>44377</v>
+        <v>44135</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>53028</v>
+        <v>52953</v>
       </c>
       <c r="B65">
-        <v>1106</v>
+        <v>1075</v>
       </c>
       <c r="C65">
-        <v>0.0283</v>
+        <v>0.0241</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -1912,18 +1912,18 @@
         <v>12</v>
       </c>
       <c r="G65" s="2">
-        <v>44408</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>48375</v>
+        <v>50526</v>
       </c>
       <c r="B66">
-        <v>1095</v>
+        <v>1072</v>
       </c>
       <c r="C66">
-        <v>0.0258</v>
+        <v>0.023</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1935,18 +1935,18 @@
         <v>12</v>
       </c>
       <c r="G66" s="2">
-        <v>44439</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>50023</v>
+        <v>55058</v>
       </c>
       <c r="B67">
-        <v>1083</v>
+        <v>1026</v>
       </c>
       <c r="C67">
-        <v>0.0267</v>
+        <v>0.025</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1958,18 +1958,18 @@
         <v>12</v>
       </c>
       <c r="G67" s="2">
-        <v>44469</v>
+        <v>44227</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>1</v>
+        <v>53853</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>1020</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.0245</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1981,363 +1981,363 @@
         <v>12</v>
       </c>
       <c r="G68" s="2">
-        <v>44500</v>
+        <v>44255</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>12254</v>
+        <v>58977</v>
       </c>
       <c r="B69">
-        <v>67</v>
+        <v>1032</v>
       </c>
       <c r="C69">
-        <v>0.0481</v>
+        <v>0.0268</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="2">
-        <v>43496</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>10052</v>
+        <v>55121</v>
       </c>
       <c r="B70">
-        <v>67</v>
+        <v>1077</v>
       </c>
       <c r="C70">
-        <v>0.0394</v>
+        <v>0.0251</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="2">
-        <v>43524</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>10567</v>
+        <v>56658</v>
       </c>
       <c r="B71">
-        <v>69</v>
+        <v>1117</v>
       </c>
       <c r="C71">
-        <v>0.0414</v>
+        <v>0.0258</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
       </c>
       <c r="G71" s="2">
-        <v>43555</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>9239</v>
+        <v>53549</v>
       </c>
       <c r="B72">
-        <v>68</v>
+        <v>1109</v>
       </c>
       <c r="C72">
-        <v>0.0362</v>
+        <v>0.0244</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
       </c>
       <c r="G72" s="2">
-        <v>43585</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>7493</v>
+        <v>52096</v>
       </c>
       <c r="B73">
-        <v>69</v>
+        <v>1093</v>
       </c>
       <c r="C73">
-        <v>0.0294</v>
+        <v>0.0237</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
       </c>
       <c r="G73" s="2">
-        <v>43616</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>7617</v>
+        <v>47428</v>
       </c>
       <c r="B74">
-        <v>67</v>
+        <v>1085</v>
       </c>
       <c r="C74">
-        <v>0.0299</v>
+        <v>0.0216</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
         <v>12</v>
       </c>
       <c r="G74" s="2">
-        <v>43646</v>
+        <v>44439</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>7345</v>
+        <v>49043</v>
       </c>
       <c r="B75">
-        <v>69</v>
+        <v>1072</v>
       </c>
       <c r="C75">
-        <v>0.0288</v>
+        <v>0.0223</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
       </c>
       <c r="G75" s="2">
-        <v>43677</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>7460</v>
+        <v>47992</v>
       </c>
       <c r="B76">
-        <v>70</v>
+        <v>1078</v>
       </c>
       <c r="C76">
-        <v>0.0293</v>
+        <v>0.0218</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
       </c>
       <c r="G76" s="2">
-        <v>43708</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>7225</v>
+        <v>46188</v>
       </c>
       <c r="B77">
-        <v>68</v>
+        <v>1053</v>
       </c>
       <c r="C77">
-        <v>0.0283</v>
+        <v>0.021</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
         <v>12</v>
       </c>
       <c r="G77" s="2">
-        <v>43738</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>8443</v>
+        <v>41274</v>
       </c>
       <c r="B78">
-        <v>67</v>
+        <v>1000</v>
       </c>
       <c r="C78">
-        <v>0.0331</v>
+        <v>0.0188</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
         <v>12</v>
       </c>
       <c r="G78" s="2">
-        <v>43769</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>7912</v>
+        <v>39439</v>
       </c>
       <c r="B79">
-        <v>66</v>
+        <v>998</v>
       </c>
       <c r="C79">
-        <v>0.031</v>
+        <v>0.0179</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
       </c>
       <c r="G79" s="2">
-        <v>43799</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>6312</v>
+        <v>42090</v>
       </c>
       <c r="B80">
-        <v>65</v>
+        <v>1046</v>
       </c>
       <c r="C80">
-        <v>0.0248</v>
+        <v>0.0191</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="2">
-        <v>43830</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>7841</v>
+        <v>44442</v>
       </c>
       <c r="B81">
-        <v>70</v>
+        <v>1054</v>
       </c>
       <c r="C81">
-        <v>0.0308</v>
+        <v>0.0202</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="2">
-        <v>43861</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>5894</v>
+        <v>45152</v>
       </c>
       <c r="B82">
-        <v>69</v>
+        <v>1075</v>
       </c>
       <c r="C82">
-        <v>0.0231</v>
+        <v>0.0205</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
       </c>
       <c r="G82" s="2">
-        <v>43890</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>9061</v>
+        <v>47030</v>
       </c>
       <c r="B83">
-        <v>69</v>
+        <v>1071</v>
       </c>
       <c r="C83">
-        <v>0.0355</v>
+        <v>0.0214</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="2">
-        <v>43921</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>12356</v>
+        <v>12122</v>
       </c>
       <c r="B84">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C84">
-        <v>0.0485</v>
+        <v>0.0414</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -2349,18 +2349,18 @@
         <v>12</v>
       </c>
       <c r="G84" s="2">
-        <v>43951</v>
+        <v>43496</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>9280</v>
+        <v>9938</v>
       </c>
       <c r="B85">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C85">
-        <v>0.0364</v>
+        <v>0.034</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -2372,18 +2372,18 @@
         <v>12</v>
       </c>
       <c r="G85" s="2">
-        <v>43982</v>
+        <v>43524</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>8543</v>
+        <v>10458</v>
       </c>
       <c r="B86">
         <v>68</v>
       </c>
       <c r="C86">
-        <v>0.0335</v>
+        <v>0.0358</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -2395,18 +2395,18 @@
         <v>12</v>
       </c>
       <c r="G86" s="2">
-        <v>44012</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>11379</v>
+        <v>9125</v>
       </c>
       <c r="B87">
         <v>67</v>
       </c>
       <c r="C87">
-        <v>0.0446</v>
+        <v>0.0312</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -2418,18 +2418,18 @@
         <v>12</v>
       </c>
       <c r="G87" s="2">
-        <v>44043</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>6300</v>
+        <v>7444</v>
       </c>
       <c r="B88">
         <v>68</v>
       </c>
       <c r="C88">
-        <v>0.0247</v>
+        <v>0.0255</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2441,18 +2441,18 @@
         <v>12</v>
       </c>
       <c r="G88" s="2">
-        <v>44074</v>
+        <v>43616</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>7102</v>
+        <v>7570</v>
       </c>
       <c r="B89">
         <v>66</v>
       </c>
       <c r="C89">
-        <v>0.0279</v>
+        <v>0.0259</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -2464,18 +2464,18 @@
         <v>12</v>
       </c>
       <c r="G89" s="2">
-        <v>44104</v>
+        <v>43646</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>8061</v>
+        <v>7266</v>
       </c>
       <c r="B90">
         <v>68</v>
       </c>
       <c r="C90">
-        <v>0.0316</v>
+        <v>0.0248</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -2487,18 +2487,18 @@
         <v>12</v>
       </c>
       <c r="G90" s="2">
-        <v>44135</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>6948</v>
+        <v>7415</v>
       </c>
       <c r="B91">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C91">
-        <v>0.0273</v>
+        <v>0.0254</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -2510,18 +2510,18 @@
         <v>12</v>
       </c>
       <c r="G91" s="2">
-        <v>44165</v>
+        <v>43708</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>4911</v>
+        <v>7169</v>
       </c>
       <c r="B92">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C92">
-        <v>0.0193</v>
+        <v>0.0245</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -2533,18 +2533,18 @@
         <v>12</v>
       </c>
       <c r="G92" s="2">
-        <v>44196</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>6565</v>
+        <v>8375</v>
       </c>
       <c r="B93">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C93">
-        <v>0.0257</v>
+        <v>0.0286</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2556,18 +2556,18 @@
         <v>12</v>
       </c>
       <c r="G93" s="2">
-        <v>44227</v>
+        <v>43769</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>6509</v>
+        <v>7846</v>
       </c>
       <c r="B94">
         <v>65</v>
       </c>
       <c r="C94">
-        <v>0.0255</v>
+        <v>0.0268</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -2579,18 +2579,18 @@
         <v>12</v>
       </c>
       <c r="G94" s="2">
-        <v>44255</v>
+        <v>43799</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>7524</v>
+        <v>6231</v>
       </c>
       <c r="B95">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C95">
-        <v>0.0295</v>
+        <v>0.0213</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2602,18 +2602,18 @@
         <v>12</v>
       </c>
       <c r="G95" s="2">
-        <v>44286</v>
+        <v>43830</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>5731</v>
+        <v>7755</v>
       </c>
       <c r="B96">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C96">
-        <v>0.0225</v>
+        <v>0.0265</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2625,18 +2625,18 @@
         <v>12</v>
       </c>
       <c r="G96" s="2">
-        <v>44316</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>6183</v>
+        <v>5795</v>
       </c>
       <c r="B97">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C97">
-        <v>0.0243</v>
+        <v>0.0198</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -2648,18 +2648,18 @@
         <v>12</v>
       </c>
       <c r="G97" s="2">
-        <v>44347</v>
+        <v>43890</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>5838</v>
+        <v>8997</v>
       </c>
       <c r="B98">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C98">
-        <v>0.0229</v>
+        <v>0.0308</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2671,18 +2671,18 @@
         <v>12</v>
       </c>
       <c r="G98" s="2">
-        <v>44377</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>5449</v>
+        <v>12271</v>
       </c>
       <c r="B99">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C99">
-        <v>0.0214</v>
+        <v>0.042</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -2694,18 +2694,18 @@
         <v>12</v>
       </c>
       <c r="G99" s="2">
-        <v>44408</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>5460</v>
+        <v>9221</v>
       </c>
       <c r="B100">
         <v>67</v>
       </c>
       <c r="C100">
-        <v>0.0214</v>
+        <v>0.0315</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2717,18 +2717,18 @@
         <v>12</v>
       </c>
       <c r="G100" s="2">
-        <v>44439</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>6077</v>
+        <v>8475</v>
       </c>
       <c r="B101">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C101">
-        <v>0.0238</v>
+        <v>0.029</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -2740,547 +2740,547 @@
         <v>12</v>
       </c>
       <c r="G101" s="2">
-        <v>44469</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>557</v>
+        <v>11219</v>
       </c>
       <c r="B102">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C102">
-        <v>0.024</v>
+        <v>0.0384</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F102" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="2">
-        <v>43496</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>584</v>
+        <v>6219</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C103">
-        <v>0.0252</v>
+        <v>0.0213</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
       </c>
       <c r="G103" s="2">
-        <v>43524</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>900</v>
+        <v>7007</v>
       </c>
       <c r="B104">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C104">
-        <v>0.0388</v>
+        <v>0.024</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F104" t="s">
         <v>12</v>
       </c>
       <c r="G104" s="2">
-        <v>43555</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>1008</v>
+        <v>7962</v>
       </c>
       <c r="B105">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C105">
-        <v>0.0435</v>
+        <v>0.0272</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
         <v>12</v>
       </c>
       <c r="G105" s="2">
-        <v>43585</v>
+        <v>44135</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>880</v>
+        <v>6889</v>
       </c>
       <c r="B106">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C106">
-        <v>0.038</v>
+        <v>0.0236</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F106" t="s">
         <v>12</v>
       </c>
       <c r="G106" s="2">
-        <v>43616</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>841</v>
+        <v>4878</v>
       </c>
       <c r="B107">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C107">
-        <v>0.0363</v>
+        <v>0.0167</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F107" t="s">
         <v>12</v>
       </c>
       <c r="G107" s="2">
-        <v>43646</v>
+        <v>44196</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>687</v>
+        <v>6485</v>
       </c>
       <c r="B108">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C108">
-        <v>0.0297</v>
+        <v>0.0222</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F108" t="s">
         <v>12</v>
       </c>
       <c r="G108" s="2">
-        <v>43677</v>
+        <v>44227</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>787</v>
+        <v>6439</v>
       </c>
       <c r="B109">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C109">
-        <v>0.034</v>
+        <v>0.022</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F109" t="s">
         <v>12</v>
       </c>
       <c r="G109" s="2">
-        <v>43708</v>
+        <v>44255</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>894</v>
+        <v>7476</v>
       </c>
       <c r="B110">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C110">
-        <v>0.0386</v>
+        <v>0.0256</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F110" t="s">
         <v>12</v>
       </c>
       <c r="G110" s="2">
-        <v>43738</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>714</v>
+        <v>5679</v>
       </c>
       <c r="B111">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C111">
-        <v>0.0308</v>
+        <v>0.0194</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F111" t="s">
         <v>12</v>
       </c>
       <c r="G111" s="2">
-        <v>43769</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>544</v>
+        <v>6103</v>
       </c>
       <c r="B112">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C112">
-        <v>0.0235</v>
+        <v>0.0209</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F112" t="s">
         <v>12</v>
       </c>
       <c r="G112" s="2">
-        <v>43799</v>
+        <v>44347</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>507</v>
+        <v>5776</v>
       </c>
       <c r="B113">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C113">
-        <v>0.0219</v>
+        <v>0.0197</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F113" t="s">
         <v>12</v>
       </c>
       <c r="G113" s="2">
-        <v>43830</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>517</v>
+        <v>5363</v>
       </c>
       <c r="B114">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C114">
-        <v>0.0223</v>
+        <v>0.0183</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F114" t="s">
         <v>12</v>
       </c>
       <c r="G114" s="2">
-        <v>43861</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>528</v>
+        <v>5358</v>
       </c>
       <c r="B115">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C115">
-        <v>0.0228</v>
+        <v>0.0183</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F115" t="s">
         <v>12</v>
       </c>
       <c r="G115" s="2">
-        <v>43890</v>
+        <v>44439</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>698</v>
+        <v>5982</v>
       </c>
       <c r="B116">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C116">
-        <v>0.0301</v>
+        <v>0.0205</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
         <v>12</v>
       </c>
       <c r="G116" s="2">
-        <v>43921</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>954</v>
+        <v>5816</v>
       </c>
       <c r="B117">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C117">
-        <v>0.0412</v>
+        <v>0.0199</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
         <v>12</v>
       </c>
       <c r="G117" s="2">
-        <v>43951</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>626</v>
+        <v>5889</v>
       </c>
       <c r="B118">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C118">
-        <v>0.027</v>
+        <v>0.0201</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
         <v>12</v>
       </c>
       <c r="G118" s="2">
-        <v>43982</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>500</v>
+        <v>4390</v>
       </c>
       <c r="B119">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C119">
-        <v>0.0216</v>
+        <v>0.015</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F119" t="s">
         <v>12</v>
       </c>
       <c r="G119" s="2">
-        <v>44012</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>731</v>
+        <v>5001</v>
       </c>
       <c r="B120">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C120">
-        <v>0.0315</v>
+        <v>0.0171</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
         <v>12</v>
       </c>
       <c r="G120" s="2">
-        <v>44043</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>879</v>
+        <v>4999</v>
       </c>
       <c r="B121">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C121">
-        <v>0.0379</v>
+        <v>0.0171</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F121" t="s">
         <v>12</v>
       </c>
       <c r="G121" s="2">
-        <v>44074</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>892</v>
+        <v>5336</v>
       </c>
       <c r="B122">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C122">
-        <v>0.0385</v>
+        <v>0.0182</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F122" t="s">
         <v>12</v>
       </c>
       <c r="G122" s="2">
-        <v>44104</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>609</v>
+        <v>4105</v>
       </c>
       <c r="B123">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C123">
-        <v>0.0263</v>
+        <v>0.014</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F123" t="s">
         <v>12</v>
       </c>
       <c r="G123" s="2">
-        <v>44135</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>505</v>
+        <v>4625</v>
       </c>
       <c r="B124">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C124">
-        <v>0.0218</v>
+        <v>0.0158</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F124" t="s">
         <v>12</v>
       </c>
       <c r="G124" s="2">
-        <v>44165</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="B125">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C125">
-        <v>0.0253</v>
+        <v>0.0188</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
@@ -3292,18 +3292,18 @@
         <v>12</v>
       </c>
       <c r="G125" s="2">
-        <v>44196</v>
+        <v>43496</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>402</v>
+        <v>584</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C126">
-        <v>0.0174</v>
+        <v>0.0198</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
@@ -3315,18 +3315,18 @@
         <v>12</v>
       </c>
       <c r="G126" s="2">
-        <v>44227</v>
+        <v>43524</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>471</v>
+        <v>898</v>
       </c>
       <c r="B127">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C127">
-        <v>0.0203</v>
+        <v>0.0304</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
@@ -3338,18 +3338,18 @@
         <v>12</v>
       </c>
       <c r="G127" s="2">
-        <v>44255</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>498</v>
+        <v>1006</v>
       </c>
       <c r="B128">
         <v>15</v>
       </c>
       <c r="C128">
-        <v>0.0215</v>
+        <v>0.0341</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
@@ -3361,18 +3361,18 @@
         <v>12</v>
       </c>
       <c r="G128" s="2">
-        <v>44286</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>483</v>
+        <v>876</v>
       </c>
       <c r="B129">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>0.0208</v>
+        <v>0.0297</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -3384,18 +3384,18 @@
         <v>12</v>
       </c>
       <c r="G129" s="2">
-        <v>44316</v>
+        <v>43616</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>802</v>
+        <v>840</v>
       </c>
       <c r="B130">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C130">
-        <v>0.0346</v>
+        <v>0.0285</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
@@ -3407,18 +3407,18 @@
         <v>12</v>
       </c>
       <c r="G130" s="2">
-        <v>44347</v>
+        <v>43646</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>836</v>
+        <v>687</v>
       </c>
       <c r="B131">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C131">
-        <v>0.0361</v>
+        <v>0.0233</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
@@ -3430,18 +3430,18 @@
         <v>12</v>
       </c>
       <c r="G131" s="2">
-        <v>44377</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>936</v>
+        <v>785</v>
       </c>
       <c r="B132">
         <v>14</v>
       </c>
       <c r="C132">
-        <v>0.0404</v>
+        <v>0.0266</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
@@ -3453,18 +3453,18 @@
         <v>12</v>
       </c>
       <c r="G132" s="2">
-        <v>44408</v>
+        <v>43708</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>812</v>
+        <v>887</v>
       </c>
       <c r="B133">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C133">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -3476,18 +3476,18 @@
         <v>12</v>
       </c>
       <c r="G133" s="2">
-        <v>44439</v>
+        <v>43738</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>969</v>
+        <v>713</v>
       </c>
       <c r="B134">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C134">
-        <v>0.0418</v>
+        <v>0.0242</v>
       </c>
       <c r="D134" t="s">
         <v>7</v>
@@ -3499,7 +3499,720 @@
         <v>12</v>
       </c>
       <c r="G134" s="2">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>543</v>
+      </c>
+      <c r="B135">
+        <v>15</v>
+      </c>
+      <c r="C135">
+        <v>0.0184</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="2">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>509</v>
+      </c>
+      <c r="B136">
+        <v>16</v>
+      </c>
+      <c r="C136">
+        <v>0.0172</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="2">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>514</v>
+      </c>
+      <c r="B137">
+        <v>14</v>
+      </c>
+      <c r="C137">
+        <v>0.0174</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="2">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>520</v>
+      </c>
+      <c r="B138">
+        <v>15</v>
+      </c>
+      <c r="C138">
+        <v>0.0176</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="2">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>692</v>
+      </c>
+      <c r="B139">
+        <v>18</v>
+      </c>
+      <c r="C139">
+        <v>0.0234</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="2">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>953</v>
+      </c>
+      <c r="B140">
+        <v>16</v>
+      </c>
+      <c r="C140">
+        <v>0.0323</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="2">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>623</v>
+      </c>
+      <c r="B141">
+        <v>15</v>
+      </c>
+      <c r="C141">
+        <v>0.0211</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="2">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>496</v>
+      </c>
+      <c r="B142">
+        <v>16</v>
+      </c>
+      <c r="C142">
+        <v>0.0168</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="2">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>729</v>
+      </c>
+      <c r="B143">
+        <v>16</v>
+      </c>
+      <c r="C143">
+        <v>0.0247</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="2">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>878</v>
+      </c>
+      <c r="B144">
+        <v>16</v>
+      </c>
+      <c r="C144">
+        <v>0.0297</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="2">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>890</v>
+      </c>
+      <c r="B145">
+        <v>13</v>
+      </c>
+      <c r="C145">
+        <v>0.0302</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="2">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>607</v>
+      </c>
+      <c r="B146">
+        <v>15</v>
+      </c>
+      <c r="C146">
+        <v>0.0206</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="2">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>504</v>
+      </c>
+      <c r="B147">
+        <v>15</v>
+      </c>
+      <c r="C147">
+        <v>0.0171</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="2">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>585</v>
+      </c>
+      <c r="B148">
+        <v>14</v>
+      </c>
+      <c r="C148">
+        <v>0.0198</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="2">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>401</v>
+      </c>
+      <c r="B149">
+        <v>12</v>
+      </c>
+      <c r="C149">
+        <v>0.0136</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="2">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>469</v>
+      </c>
+      <c r="B150">
+        <v>15</v>
+      </c>
+      <c r="C150">
+        <v>0.0159</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="2">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>498</v>
+      </c>
+      <c r="B151">
+        <v>15</v>
+      </c>
+      <c r="C151">
+        <v>0.0169</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="2">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>483</v>
+      </c>
+      <c r="B152">
+        <v>14</v>
+      </c>
+      <c r="C152">
+        <v>0.0164</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="2">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>800</v>
+      </c>
+      <c r="B153">
+        <v>12</v>
+      </c>
+      <c r="C153">
+        <v>0.0271</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="2">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>833</v>
+      </c>
+      <c r="B154">
+        <v>15</v>
+      </c>
+      <c r="C154">
+        <v>0.0282</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="2">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>932</v>
+      </c>
+      <c r="B155">
+        <v>14</v>
+      </c>
+      <c r="C155">
+        <v>0.0316</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="2">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>804</v>
+      </c>
+      <c r="B156">
+        <v>14</v>
+      </c>
+      <c r="C156">
+        <v>0.0272</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="2">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>965</v>
+      </c>
+      <c r="B157">
+        <v>17</v>
+      </c>
+      <c r="C157">
+        <v>0.0327</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="2">
         <v>44469</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>1125</v>
+      </c>
+      <c r="B158">
+        <v>16</v>
+      </c>
+      <c r="C158">
+        <v>0.0381</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="2">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>979</v>
+      </c>
+      <c r="B159">
+        <v>14</v>
+      </c>
+      <c r="C159">
+        <v>0.0332</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" s="2">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>794</v>
+      </c>
+      <c r="B160">
+        <v>12</v>
+      </c>
+      <c r="C160">
+        <v>0.0269</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>724</v>
+      </c>
+      <c r="B161">
+        <v>14</v>
+      </c>
+      <c r="C161">
+        <v>0.0245</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>658</v>
+      </c>
+      <c r="B162">
+        <v>12</v>
+      </c>
+      <c r="C162">
+        <v>0.0223</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>578</v>
+      </c>
+      <c r="B163">
+        <v>15</v>
+      </c>
+      <c r="C163">
+        <v>0.0196</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="2">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>652</v>
+      </c>
+      <c r="B164">
+        <v>12</v>
+      </c>
+      <c r="C164">
+        <v>0.0221</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="2">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>915</v>
+      </c>
+      <c r="B165">
+        <v>12</v>
+      </c>
+      <c r="C165">
+        <v>0.031</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="2">
+        <v>44712</v>
       </c>
     </row>
   </sheetData>
